--- a/dist/dummy_files/wiat_template.xlsx
+++ b/dist/dummy_files/wiat_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsalo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joans\PhpstormProjects\WIAT_front\public\dummy_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB312510-15AA-4D4E-8655-AD4CAEEA9B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B59B6FA-13A5-4570-90FB-CA292A301C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{A14C6850-7486-4D49-86A3-639AED911610}"/>
+    <workbookView xWindow="8235" yWindow="2805" windowWidth="28800" windowHeight="15885" activeTab="3" xr2:uid="{A14C6850-7486-4D49-86A3-639AED911610}"/>
   </bookViews>
   <sheets>
     <sheet name="INDUSTRY" sheetId="1" r:id="rId1"/>
@@ -24,23 +24,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="214">
   <si>
     <t>Assessment name</t>
   </si>
@@ -326,9 +315,6 @@
     <t>g/m3</t>
   </si>
   <si>
-    <t>Add concentration of each pollutant to the right, one at each cell, in the same order than the pollutants added to the industry</t>
-  </si>
-  <si>
     <t>Fuel type (engines)</t>
   </si>
   <si>
@@ -576,9 +562,6 @@
   <si>
     <t>Add contaminants in
 the industry</t>
-  </si>
-  <si>
-    <t>To the right, add the first the concentration and then its level of certainty (one at each cell), and as many times as needed, in the same order that the pollutants added to the industry</t>
   </si>
   <si>
     <t>Sludge sent to land application (dry weight)</t>
@@ -771,6 +754,72 @@
   </si>
   <si>
     <t>Cadmium</t>
+  </si>
+  <si>
+    <t>1,2-Dichloroethane</t>
+  </si>
+  <si>
+    <t>Hexaclorobenzene</t>
+  </si>
+  <si>
+    <t>Mercury</t>
+  </si>
+  <si>
+    <t>Lead</t>
+  </si>
+  <si>
+    <t>Nickel</t>
+  </si>
+  <si>
+    <t>Chloroalkanes</t>
+  </si>
+  <si>
+    <t>Hexachlorobutadiene</t>
+  </si>
+  <si>
+    <t>Nonylphenols</t>
+  </si>
+  <si>
+    <t>Tetrachloroethene</t>
+  </si>
+  <si>
+    <t>Trichloroethylene</t>
+  </si>
+  <si>
+    <t>0.0001281</t>
+  </si>
+  <si>
+    <t>0.01236</t>
+  </si>
+  <si>
+    <t>0.015111</t>
+  </si>
+  <si>
+    <t>0.001224</t>
+  </si>
+  <si>
+    <t>0.0001025</t>
+  </si>
+  <si>
+    <t>0.00006</t>
+  </si>
+  <si>
+    <t>0.001</t>
+  </si>
+  <si>
+    <t>0.003</t>
+  </si>
+  <si>
+    <t>0.0000073</t>
+  </si>
+  <si>
+    <t>0.0000013</t>
+  </si>
+  <si>
+    <t>To the right, add first the concentration and then its level of certainty (one at each cell), and as many times as needed, in the same order that the pollutants added to the industry</t>
+  </si>
+  <si>
+    <t>To the right, the first the concentration and then its level of certainty (one at each cell), and as many times as needed, in the same order that the pollutants added to the industry</t>
   </si>
 </sst>
 </file>
@@ -1124,13 +1173,10 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1142,13 +1188,16 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1477,21 +1526,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D97F1C-3547-4525-AD16-36CC009A61DF}">
-  <dimension ref="A2:L35"/>
+  <dimension ref="A2:AH35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="94" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A16" zoomScale="94" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.453125" customWidth="1"/>
-    <col min="2" max="2" width="18.90625" customWidth="1"/>
-    <col min="3" max="3" width="43.1796875" customWidth="1"/>
-    <col min="4" max="4" width="34.453125" customWidth="1"/>
-    <col min="5" max="5" width="18.453125" customWidth="1"/>
-    <col min="6" max="6" width="17.36328125" customWidth="1"/>
-    <col min="9" max="9" width="48.90625" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="43.140625" customWidth="1"/>
+    <col min="4" max="4" width="34.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="9" max="9" width="41.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" customWidth="1"/>
+    <col min="14" max="14" width="16.85546875" customWidth="1"/>
+    <col min="15" max="15" width="21.42578125" customWidth="1"/>
+    <col min="16" max="16" width="17.140625" customWidth="1"/>
+    <col min="17" max="17" width="19.140625" customWidth="1"/>
+    <col min="18" max="18" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9">
@@ -1505,22 +1560,22 @@
         <v>9</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="36" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F3" s="20"/>
     </row>
@@ -1531,21 +1586,21 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F4" s="20"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="37"/>
       <c r="B5" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E5" s="4">
         <v>44.659449000000002</v>
@@ -1555,32 +1610,32 @@
     <row r="6" spans="1:9">
       <c r="A6" s="37"/>
       <c r="B6" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E6" s="4">
         <v>28.342458600000001</v>
       </c>
       <c r="F6" s="20"/>
     </row>
-    <row r="7" spans="1:9" ht="54.5" customHeight="1">
+    <row r="7" spans="1:9" ht="54.6" customHeight="1">
       <c r="A7" s="37"/>
       <c r="B7" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="16" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="20"/>
     </row>
-    <row r="8" spans="1:9" ht="72.5">
+    <row r="8" spans="1:9" ht="64.5" customHeight="1">
       <c r="A8" s="38" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B8" s="28" t="s">
         <v>3</v>
@@ -1589,17 +1644,17 @@
         <v>6</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E8" s="4">
         <v>10</v>
       </c>
       <c r="F8" s="4"/>
       <c r="I8" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="53.5" customHeight="1">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="87.75" customHeight="1">
       <c r="A9" s="38"/>
       <c r="B9" s="28" t="s">
         <v>4</v>
@@ -1613,10 +1668,10 @@
       </c>
       <c r="F9" s="4"/>
       <c r="I9" s="33" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="131" thickBot="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="135.75" thickBot="1">
       <c r="A10" s="38"/>
       <c r="B10" s="28" t="s">
         <v>5</v>
@@ -1627,15 +1682,15 @@
       <c r="D10" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="4">
         <v>0</v>
       </c>
       <c r="F10" s="4"/>
       <c r="I10" s="34" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="131" thickBot="1">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="150.75" thickBot="1">
       <c r="A11" s="38"/>
       <c r="B11" s="28" t="s">
         <v>50</v>
@@ -1651,118 +1706,148 @@
       </c>
       <c r="F11" s="17"/>
       <c r="I11" s="35" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="58">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="60">
       <c r="A12" s="38"/>
       <c r="B12" s="28" t="s">
         <v>52</v>
       </c>
       <c r="C12" s="24"/>
       <c r="D12" s="31" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="20"/>
     </row>
-    <row r="13" spans="1:9" ht="72.5">
+    <row r="13" spans="1:9" ht="90">
       <c r="A13" s="38"/>
       <c r="B13" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="24"/>
       <c r="D13" s="31" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="20"/>
     </row>
-    <row r="14" spans="1:9" ht="72.5">
+    <row r="14" spans="1:9" ht="75">
       <c r="A14" s="38"/>
       <c r="B14" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C14" s="24"/>
       <c r="D14" s="31" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="20"/>
     </row>
-    <row r="15" spans="1:9" ht="29" customHeight="1">
+    <row r="15" spans="1:9" ht="29.1" customHeight="1">
       <c r="A15" s="38"/>
       <c r="B15" s="28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C15" s="24"/>
       <c r="D15" s="31" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F15" s="20"/>
     </row>
-    <row r="16" spans="1:9" ht="188.5">
+    <row r="16" spans="1:9" ht="195">
       <c r="A16" s="38"/>
       <c r="B16" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C16" s="24"/>
       <c r="D16" s="29" t="s">
         <v>53</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F16" s="20"/>
     </row>
-    <row r="17" spans="1:12" ht="58">
+    <row r="17" spans="1:34" ht="60">
       <c r="A17" s="38"/>
       <c r="B17" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C17" s="24" t="s">
         <v>54</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E17" s="4">
         <v>2</v>
       </c>
       <c r="F17" s="17"/>
     </row>
-    <row r="18" spans="1:12" ht="72.5">
+    <row r="18" spans="1:34" ht="75">
       <c r="A18" s="38"/>
       <c r="B18" s="28" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C18" s="24"/>
       <c r="D18" s="30" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E18" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="G18" t="s">
         <v>190</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="H18" t="s">
         <v>191</v>
       </c>
-      <c r="G18" t="s">
+      <c r="I18" t="s">
         <v>192</v>
       </c>
-      <c r="H18" t="s">
+      <c r="J18" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="87">
+      <c r="K18" t="s">
+        <v>194</v>
+      </c>
+      <c r="L18" t="s">
+        <v>195</v>
+      </c>
+      <c r="M18" t="s">
+        <v>196</v>
+      </c>
+      <c r="N18" t="s">
+        <v>197</v>
+      </c>
+      <c r="O18" t="s">
+        <v>198</v>
+      </c>
+      <c r="P18" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>200</v>
+      </c>
+      <c r="R18" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" ht="90">
       <c r="A19" s="38"/>
       <c r="B19" s="23" t="s">
         <v>55</v>
@@ -1771,25 +1856,25 @@
         <v>56</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>166</v>
+        <v>212</v>
       </c>
       <c r="E19" s="4">
         <v>96.28</v>
       </c>
       <c r="F19" s="4">
+        <v>1</v>
+      </c>
+      <c r="G19">
         <v>0</v>
       </c>
-      <c r="G19" s="18">
-        <v>0</v>
-      </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19" s="18">
+        <v>3</v>
+      </c>
+      <c r="I19">
         <v>20.45</v>
       </c>
       <c r="J19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K19">
         <v>4.55E-4</v>
@@ -1797,8 +1882,74 @@
       <c r="L19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="58">
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>3</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>202</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19" t="s">
+        <v>203</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19" t="s">
+        <v>204</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB19">
+        <v>1</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>206</v>
+      </c>
+      <c r="AF19">
+        <v>3</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" ht="60">
       <c r="A20" s="38"/>
       <c r="B20" s="23" t="s">
         <v>60</v>
@@ -1812,9 +1963,9 @@
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
     </row>
-    <row r="21" spans="1:12" ht="72.5">
+    <row r="21" spans="1:34" ht="90">
       <c r="A21" s="21" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>57</v>
@@ -1823,17 +1974,17 @@
         <v>56</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>166</v>
+        <v>213</v>
       </c>
       <c r="E21" s="4">
         <v>1.0568</v>
       </c>
       <c r="F21" s="4"/>
-      <c r="G21" s="4">
+      <c r="G21">
         <v>9.0379000000000005</v>
       </c>
       <c r="H21" s="18"/>
-      <c r="I21" s="4">
+      <c r="I21">
         <v>0</v>
       </c>
       <c r="J21" s="18"/>
@@ -1841,7 +1992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:34">
       <c r="H22" s="18"/>
     </row>
     <row r="35" spans="2:2">
@@ -1877,24 +2028,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3699978A-1E09-4AD2-9D2E-EA46A24DCBD2}">
-  <dimension ref="A1:K64"/>
+  <dimension ref="A1:AF64"/>
   <sheetViews>
-    <sheetView topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.54296875" customWidth="1"/>
-    <col min="2" max="2" width="43.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" customWidth="1"/>
-    <col min="4" max="4" width="48.54296875" customWidth="1"/>
-    <col min="5" max="5" width="27.08984375" customWidth="1"/>
-    <col min="6" max="6" width="22.90625" customWidth="1"/>
-    <col min="11" max="11" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="43.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="48.5703125" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:32">
       <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
@@ -1905,12 +2056,12 @@
         <v>9</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32">
       <c r="A2" s="36" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>59</v>
@@ -1924,7 +2075,7 @@
       </c>
       <c r="F2" s="20"/>
     </row>
-    <row r="3" spans="1:11" ht="43.5">
+    <row r="3" spans="1:32" ht="60">
       <c r="A3" s="36"/>
       <c r="B3" s="2" t="s">
         <v>61</v>
@@ -1933,14 +2084,14 @@
         <v>6</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E3" s="4">
         <v>15</v>
       </c>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="29">
+    <row r="4" spans="1:32" ht="30">
       <c r="A4" s="36"/>
       <c r="B4" s="3" t="s">
         <v>62</v>
@@ -1949,14 +2100,14 @@
         <v>6</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E4" s="4">
         <v>10</v>
       </c>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="29">
+    <row r="5" spans="1:32" ht="45">
       <c r="A5" s="36"/>
       <c r="B5" s="1" t="s">
         <v>63</v>
@@ -1970,7 +2121,7 @@
       </c>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="29">
+    <row r="6" spans="1:32" ht="30">
       <c r="A6" s="36"/>
       <c r="B6" s="1" t="s">
         <v>64</v>
@@ -1984,7 +2135,7 @@
       </c>
       <c r="F6" s="20"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:32">
       <c r="A7" s="36"/>
       <c r="B7" s="3" t="s">
         <v>68</v>
@@ -1998,7 +2149,7 @@
       </c>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:11" ht="29">
+    <row r="8" spans="1:32" ht="30">
       <c r="A8" s="36"/>
       <c r="B8" s="3" t="s">
         <v>69</v>
@@ -2007,12 +2158,12 @@
         <v>73</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="17">
+      <c r="E8" s="4">
         <v>2</v>
       </c>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:32">
       <c r="A9" s="36"/>
       <c r="B9" s="3" t="s">
         <v>71</v>
@@ -2023,12 +2174,12 @@
       <c r="D9" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="4">
         <v>0.45500000000000002</v>
       </c>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="29">
+    <row r="10" spans="1:32" ht="30">
       <c r="A10" s="36"/>
       <c r="B10" s="3" t="s">
         <v>74</v>
@@ -2039,12 +2190,12 @@
       <c r="D10" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="4">
         <v>0.05</v>
       </c>
       <c r="F10" s="17"/>
     </row>
-    <row r="11" spans="1:11" ht="29">
+    <row r="11" spans="1:32" ht="45">
       <c r="A11" s="36"/>
       <c r="B11" s="2" t="s">
         <v>77</v>
@@ -2055,12 +2206,12 @@
       <c r="D11" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="4">
         <v>1.04165E-2</v>
       </c>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:11" ht="29">
+    <row r="12" spans="1:32" ht="30">
       <c r="A12" s="36"/>
       <c r="B12" s="2" t="s">
         <v>79</v>
@@ -2071,12 +2222,12 @@
       <c r="D12" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="4">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:32">
       <c r="A13" s="36"/>
       <c r="B13" s="2" t="s">
         <v>82</v>
@@ -2085,12 +2236,12 @@
         <v>83</v>
       </c>
       <c r="D13" s="8"/>
-      <c r="E13" s="17">
+      <c r="E13" s="4">
         <v>1.6E-2</v>
       </c>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:32">
       <c r="A14" s="36"/>
       <c r="B14" s="2" t="s">
         <v>84</v>
@@ -2099,13 +2250,13 @@
         <v>80</v>
       </c>
       <c r="D14" s="15"/>
-      <c r="E14" s="17">
+      <c r="E14" s="4">
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="18"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:32">
       <c r="A15" s="36"/>
       <c r="B15" s="1" t="s">
         <v>85</v>
@@ -2114,14 +2265,14 @@
         <v>83</v>
       </c>
       <c r="D15" s="16"/>
-      <c r="E15" s="17">
+      <c r="E15" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:11" ht="43.5">
+    <row r="16" spans="1:32" ht="60">
       <c r="A16" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B16" s="23" t="s">
         <v>86</v>
@@ -2130,28 +2281,99 @@
         <v>87</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>88</v>
+        <v>212</v>
       </c>
       <c r="E16" s="4">
         <v>9.6199999999999992</v>
       </c>
-      <c r="F16" s="4"/>
+      <c r="F16" s="4">
+        <v>3</v>
+      </c>
       <c r="G16">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
       <c r="K16">
         <v>7.2024338750000002E-5</v>
       </c>
+      <c r="L16">
+        <v>3</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>207</v>
+      </c>
+      <c r="R16">
+        <v>3</v>
+      </c>
+      <c r="S16" t="s">
+        <v>208</v>
+      </c>
+      <c r="T16">
+        <v>3</v>
+      </c>
+      <c r="U16" t="s">
+        <v>209</v>
+      </c>
+      <c r="V16">
+        <v>3</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB16">
+        <v>3</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>211</v>
+      </c>
+      <c r="AF16">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="36" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="16" t="s">
@@ -2166,27 +2388,27 @@
     <row r="18" spans="1:7">
       <c r="A18" s="36"/>
       <c r="B18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:7" ht="29">
+    <row r="19" spans="1:7" ht="30">
       <c r="A19" s="40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B19" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="D19" s="25" t="s">
         <v>93</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>94</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -2194,25 +2416,25 @@
     <row r="20" spans="1:7">
       <c r="A20" s="38"/>
       <c r="B20" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="24" t="s">
         <v>95</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>96</v>
       </c>
       <c r="D20" s="24"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="43.5">
+    <row r="21" spans="1:7" ht="45">
       <c r="A21" s="38"/>
       <c r="B21" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="25" t="s">
         <v>97</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>98</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -2220,10 +2442,10 @@
     <row r="22" spans="1:7">
       <c r="A22" s="38"/>
       <c r="B22" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D22" s="24"/>
       <c r="E22" s="4"/>
@@ -2232,22 +2454,22 @@
     <row r="23" spans="1:7">
       <c r="A23" s="38"/>
       <c r="B23" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D23" s="24"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" ht="30">
       <c r="A24" s="38"/>
       <c r="B24" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D24" s="24"/>
       <c r="E24" s="4"/>
@@ -2256,7 +2478,7 @@
     <row r="25" spans="1:7">
       <c r="A25" s="38"/>
       <c r="B25" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C25" s="24"/>
       <c r="D25" s="25" t="s">
@@ -2270,10 +2492,10 @@
     <row r="26" spans="1:7">
       <c r="A26" s="38"/>
       <c r="B26" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D26" s="24"/>
       <c r="E26" s="4"/>
@@ -2281,10 +2503,10 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="16" t="s">
@@ -2298,10 +2520,10 @@
     <row r="28" spans="1:7">
       <c r="A28" s="36"/>
       <c r="B28" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="4"/>
@@ -2309,10 +2531,10 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C29" s="24" t="s">
         <v>75</v>
@@ -2324,22 +2546,22 @@
     <row r="30" spans="1:7">
       <c r="A30" s="38"/>
       <c r="B30" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="24" t="s">
         <v>107</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>108</v>
       </c>
       <c r="D30" s="24"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="29">
+    <row r="31" spans="1:7" ht="30">
       <c r="A31" s="38"/>
       <c r="B31" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="24"/>
       <c r="E31" s="4"/>
@@ -2348,10 +2570,10 @@
     <row r="32" spans="1:7">
       <c r="A32" s="38"/>
       <c r="B32" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="24"/>
       <c r="E32" s="4"/>
@@ -2360,10 +2582,10 @@
     <row r="33" spans="1:6">
       <c r="A33" s="38"/>
       <c r="B33" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D33" s="24"/>
       <c r="E33" s="4"/>
@@ -2371,24 +2593,24 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>75</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" ht="29">
+    <row r="35" spans="1:6" ht="30">
       <c r="A35" s="36"/>
       <c r="B35" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="16" t="s">
@@ -2402,22 +2624,22 @@
     <row r="36" spans="1:6">
       <c r="A36" s="36"/>
       <c r="B36" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" ht="29">
+    <row r="37" spans="1:6" ht="30">
       <c r="A37" s="36"/>
       <c r="B37" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="4"/>
@@ -2426,10 +2648,10 @@
     <row r="38" spans="1:6">
       <c r="A38" s="36"/>
       <c r="B38" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="4"/>
@@ -2438,7 +2660,7 @@
     <row r="39" spans="1:6">
       <c r="A39" s="36"/>
       <c r="B39" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>83</v>
@@ -2447,13 +2669,13 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" ht="29">
+    <row r="40" spans="1:6" ht="30">
       <c r="A40" s="36"/>
       <c r="B40" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>120</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="4"/>
@@ -2462,10 +2684,10 @@
     <row r="41" spans="1:6">
       <c r="A41" s="36"/>
       <c r="B41" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>122</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="4"/>
@@ -2473,10 +2695,10 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C42" s="24" t="s">
         <v>75</v>
@@ -2485,16 +2707,16 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:6" ht="29">
+    <row r="43" spans="1:6" ht="30">
       <c r="A43" s="38"/>
       <c r="B43" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="C43" s="24" t="s">
+      <c r="D43" s="24" t="s">
         <v>125</v>
-      </c>
-      <c r="D43" s="24" t="s">
-        <v>126</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
@@ -2502,10 +2724,10 @@
     <row r="44" spans="1:6">
       <c r="A44" s="38"/>
       <c r="B44" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D44" s="24"/>
       <c r="E44" s="4"/>
@@ -2514,7 +2736,7 @@
     <row r="45" spans="1:6">
       <c r="A45" s="38"/>
       <c r="B45" s="26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C45" s="24"/>
       <c r="D45" s="25" t="s">
@@ -2527,10 +2749,10 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>75</v>
@@ -2542,34 +2764,34 @@
     <row r="47" spans="1:6">
       <c r="A47" s="36"/>
       <c r="B47" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:6" ht="29">
+    <row r="48" spans="1:6" ht="45">
       <c r="A48" s="36"/>
       <c r="B48" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="1:6" ht="29">
+    <row r="49" spans="1:6" ht="30">
       <c r="A49" s="36"/>
       <c r="B49" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="4"/>
@@ -2578,7 +2800,7 @@
     <row r="50" spans="1:6">
       <c r="A50" s="36"/>
       <c r="B50" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>83</v>
@@ -2589,10 +2811,10 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C51" s="24" t="s">
         <v>75</v>
@@ -2601,13 +2823,13 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6" ht="29">
+    <row r="52" spans="1:6" ht="45">
       <c r="A52" s="38"/>
       <c r="B52" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D52" s="24"/>
       <c r="E52" s="4"/>
@@ -2616,7 +2838,7 @@
     <row r="53" spans="1:6">
       <c r="A53" s="38"/>
       <c r="B53" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C53" s="24"/>
       <c r="D53" s="24"/>
@@ -2626,22 +2848,22 @@
     <row r="54" spans="1:6">
       <c r="A54" s="38"/>
       <c r="B54" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D54" s="24"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6" ht="29">
+    <row r="55" spans="1:6" ht="30">
       <c r="A55" s="38"/>
       <c r="B55" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D55" s="24"/>
       <c r="E55" s="4"/>
@@ -2650,34 +2872,34 @@
     <row r="56" spans="1:6">
       <c r="A56" s="38"/>
       <c r="B56" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D56" s="24"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6" ht="29">
+    <row r="57" spans="1:6" ht="30">
       <c r="A57" s="38"/>
       <c r="B57" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C57" s="24" t="s">
         <v>140</v>
-      </c>
-      <c r="C57" s="24" t="s">
-        <v>141</v>
       </c>
       <c r="D57" s="24"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:6" ht="29">
+    <row r="58" spans="1:6" ht="30">
       <c r="A58" s="38"/>
       <c r="B58" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D58" s="24"/>
       <c r="E58" s="4"/>
@@ -2686,7 +2908,7 @@
     <row r="59" spans="1:6">
       <c r="A59" s="38"/>
       <c r="B59" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C59" s="24" t="s">
         <v>83</v>
@@ -2697,10 +2919,10 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="36" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>75</v>
@@ -2709,26 +2931,26 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6" ht="29">
+    <row r="61" spans="1:6" ht="45">
       <c r="A61" s="36"/>
       <c r="B61" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="D61" s="16" t="s">
         <v>144</v>
-      </c>
-      <c r="D61" s="16" t="s">
-        <v>145</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:6" ht="29">
+    <row r="62" spans="1:6" ht="30">
       <c r="A62" s="40" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C62" s="24"/>
       <c r="D62" s="25" t="s">
@@ -2742,10 +2964,10 @@
     <row r="63" spans="1:6">
       <c r="A63" s="38"/>
       <c r="B63" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D63" s="24"/>
       <c r="E63" s="4"/>
@@ -2811,12 +3033,12 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.08984375" customWidth="1"/>
-    <col min="2" max="2" width="47.81640625" customWidth="1"/>
-    <col min="3" max="3" width="20.08984375" customWidth="1"/>
-    <col min="4" max="5" width="30.1796875" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="47.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="5" width="30.140625" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2831,21 +3053,21 @@
         <v>9</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="29">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="45">
       <c r="A2" s="41" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E2" s="17"/>
       <c r="F2" s="4"/>
@@ -2874,7 +3096,7 @@
       <c r="E4" s="17"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" ht="29">
+    <row r="5" spans="1:6" ht="30">
       <c r="A5" s="42"/>
       <c r="B5" s="1" t="s">
         <v>64</v>
@@ -2927,20 +3149,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D11597DE-10A8-4946-BDC0-A61DC121839D}">
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.54296875" customWidth="1"/>
-    <col min="2" max="2" width="43.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" customWidth="1"/>
-    <col min="4" max="4" width="48.54296875" customWidth="1"/>
-    <col min="5" max="5" width="27.08984375" customWidth="1"/>
-    <col min="6" max="6" width="22.90625" customWidth="1"/>
-    <col min="8" max="8" width="48.90625" customWidth="1"/>
-    <col min="9" max="9" width="14.6328125" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="43.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="48.5703125" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" customWidth="1"/>
+    <col min="8" max="8" width="48.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2954,12 +3176,12 @@
         <v>9</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="41" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>59</v>
@@ -2973,21 +3195,21 @@
       </c>
       <c r="F2" s="20"/>
     </row>
-    <row r="3" spans="1:7" ht="43.5">
+    <row r="3" spans="1:7" ht="60">
       <c r="A3" s="42"/>
       <c r="B3" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:7" ht="29">
+    <row r="4" spans="1:7" ht="30">
       <c r="A4" s="42"/>
       <c r="B4" s="3" t="s">
         <v>62</v>
@@ -2996,12 +3218,12 @@
         <v>6</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="29">
+    <row r="5" spans="1:7" ht="30">
       <c r="A5" s="42"/>
       <c r="B5" s="1" t="s">
         <v>64</v>
@@ -3027,7 +3249,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:7" ht="29">
+    <row r="7" spans="1:7" ht="30">
       <c r="A7" s="42"/>
       <c r="B7" s="3" t="s">
         <v>69</v>
@@ -3053,7 +3275,7 @@
       <c r="E8" s="17"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:7" ht="29">
+    <row r="9" spans="1:7" ht="30">
       <c r="A9" s="42"/>
       <c r="B9" s="3" t="s">
         <v>74</v>
@@ -3067,7 +3289,7 @@
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
     </row>
-    <row r="10" spans="1:7" ht="29">
+    <row r="10" spans="1:7" ht="45">
       <c r="A10" s="42"/>
       <c r="B10" s="2" t="s">
         <v>77</v>
@@ -3081,7 +3303,7 @@
       <c r="E10" s="17"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:7" ht="29">
+    <row r="11" spans="1:7" ht="30">
       <c r="A11" s="42"/>
       <c r="B11" s="2" t="s">
         <v>79</v>
@@ -3132,9 +3354,9 @@
       <c r="F14" s="4"/>
       <c r="G14" s="18"/>
     </row>
-    <row r="15" spans="1:7" ht="43.5">
+    <row r="15" spans="1:7" ht="60">
       <c r="A15" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B15" s="23" t="s">
         <v>86</v>
@@ -3143,17 +3365,17 @@
         <v>87</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>88</v>
+        <v>212</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="53" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="16" t="s">
@@ -3167,98 +3389,98 @@
     <row r="17" spans="1:7">
       <c r="A17" s="54"/>
       <c r="B17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="18"/>
     </row>
-    <row r="18" spans="1:7" ht="29">
-      <c r="A18" s="50" t="s">
-        <v>148</v>
+    <row r="18" spans="1:7" ht="30">
+      <c r="A18" s="44" t="s">
+        <v>147</v>
       </c>
       <c r="B18" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="D18" s="25" t="s">
         <v>93</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>94</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:7" ht="14.5" customHeight="1">
-      <c r="A19" s="51"/>
+    <row r="19" spans="1:7" ht="14.45" customHeight="1">
+      <c r="A19" s="52"/>
       <c r="B19" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="24" t="s">
         <v>95</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>96</v>
       </c>
       <c r="D19" s="24"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="43.5">
-      <c r="A20" s="51"/>
+    <row r="20" spans="1:7" ht="45">
+      <c r="A20" s="52"/>
       <c r="B20" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="25" t="s">
         <v>97</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>98</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="51"/>
+      <c r="A21" s="52"/>
       <c r="B21" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D21" s="24"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="51"/>
+      <c r="A22" s="52"/>
       <c r="B22" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D22" s="24"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="51"/>
+    <row r="23" spans="1:7" ht="30">
+      <c r="A23" s="52"/>
       <c r="B23" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D23" s="24"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="51"/>
+      <c r="A24" s="52"/>
       <c r="B24" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C24" s="24"/>
       <c r="D24" s="25" t="s">
@@ -3270,23 +3492,23 @@
       <c r="F24" s="20"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="52"/>
+      <c r="A25" s="45"/>
       <c r="B25" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="44" t="s">
-        <v>150</v>
+      <c r="A26" s="49" t="s">
+        <v>149</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="16" t="s">
@@ -3297,24 +3519,24 @@
       </c>
       <c r="F26" s="20"/>
     </row>
-    <row r="27" spans="1:7" ht="14.5" customHeight="1">
-      <c r="A27" s="46"/>
+    <row r="27" spans="1:7" ht="14.45" customHeight="1">
+      <c r="A27" s="51"/>
       <c r="B27" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="47" t="s">
-        <v>151</v>
+      <c r="A28" s="46" t="s">
+        <v>150</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C28" s="24" t="s">
         <v>75</v>
@@ -3324,73 +3546,73 @@
       <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="48"/>
+      <c r="A29" s="47"/>
       <c r="B29" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="24" t="s">
         <v>107</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>108</v>
       </c>
       <c r="D29" s="24"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="29">
-      <c r="A30" s="48"/>
+    <row r="30" spans="1:7" ht="30">
+      <c r="A30" s="47"/>
       <c r="B30" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="24"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="48"/>
+      <c r="A31" s="47"/>
       <c r="B31" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="24"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="49"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="24"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="44" t="s">
-        <v>152</v>
+      <c r="A33" s="49" t="s">
+        <v>151</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>75</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" ht="29">
-      <c r="A34" s="45"/>
+    <row r="34" spans="1:6" ht="30">
+      <c r="A34" s="50"/>
       <c r="B34" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="16" t="s">
@@ -3402,45 +3624,45 @@
       <c r="F34" s="20"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="45"/>
+      <c r="A35" s="50"/>
       <c r="B35" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" ht="29">
-      <c r="A36" s="45"/>
+    <row r="36" spans="1:6" ht="30">
+      <c r="A36" s="50"/>
       <c r="B36" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="45"/>
+      <c r="A37" s="50"/>
       <c r="B37" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="45"/>
+      <c r="A38" s="50"/>
       <c r="B38" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>83</v>
@@ -3449,36 +3671,36 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6" ht="29">
-      <c r="A39" s="45"/>
+    <row r="39" spans="1:6" ht="30">
+      <c r="A39" s="50"/>
       <c r="B39" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>120</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="46"/>
+      <c r="A40" s="51"/>
       <c r="B40" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>122</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="47" t="s">
-        <v>153</v>
+      <c r="A41" s="46" t="s">
+        <v>152</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C41" s="24" t="s">
         <v>75</v>
@@ -3487,36 +3709,36 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6" ht="29">
-      <c r="A42" s="48"/>
+    <row r="42" spans="1:6" ht="30">
+      <c r="A42" s="47"/>
       <c r="B42" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="D42" s="24" t="s">
         <v>125</v>
-      </c>
-      <c r="D42" s="24" t="s">
-        <v>126</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="48"/>
+      <c r="A43" s="47"/>
       <c r="B43" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D43" s="24"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="49"/>
+      <c r="A44" s="48"/>
       <c r="B44" s="26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C44" s="24"/>
       <c r="D44" s="25" t="s">
@@ -3529,10 +3751,10 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="39" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>75</v>
@@ -3541,37 +3763,37 @@
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:6" ht="14.5" customHeight="1">
+    <row r="46" spans="1:6" ht="14.45" customHeight="1">
       <c r="A46" s="36"/>
       <c r="B46" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:6" ht="29">
+    <row r="47" spans="1:6" ht="45">
       <c r="A47" s="36"/>
       <c r="B47" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:6" ht="29">
+    <row r="48" spans="1:6" ht="30">
       <c r="A48" s="36"/>
       <c r="B48" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="4"/>
@@ -3580,7 +3802,7 @@
     <row r="49" spans="1:6">
       <c r="A49" s="36"/>
       <c r="B49" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>83</v>
@@ -3591,10 +3813,10 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C50" s="24" t="s">
         <v>75</v>
@@ -3603,13 +3825,13 @@
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="1:6" ht="29">
+    <row r="51" spans="1:6" ht="45">
       <c r="A51" s="38"/>
       <c r="B51" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D51" s="24"/>
       <c r="E51" s="4"/>
@@ -3618,7 +3840,7 @@
     <row r="52" spans="1:6">
       <c r="A52" s="38"/>
       <c r="B52" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C52" s="24"/>
       <c r="D52" s="24"/>
@@ -3628,22 +3850,22 @@
     <row r="53" spans="1:6">
       <c r="A53" s="38"/>
       <c r="B53" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D53" s="24"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6" ht="29">
+    <row r="54" spans="1:6" ht="30">
       <c r="A54" s="38"/>
       <c r="B54" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D54" s="24"/>
       <c r="E54" s="4"/>
@@ -3652,34 +3874,34 @@
     <row r="55" spans="1:6">
       <c r="A55" s="38"/>
       <c r="B55" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D55" s="24"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6" ht="29">
+    <row r="56" spans="1:6" ht="30">
       <c r="A56" s="38"/>
       <c r="B56" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C56" s="24" t="s">
         <v>140</v>
-      </c>
-      <c r="C56" s="24" t="s">
-        <v>141</v>
       </c>
       <c r="D56" s="24"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6" ht="29">
+    <row r="57" spans="1:6" ht="30">
       <c r="A57" s="38"/>
       <c r="B57" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D57" s="24"/>
       <c r="E57" s="4"/>
@@ -3688,7 +3910,7 @@
     <row r="58" spans="1:6">
       <c r="A58" s="38"/>
       <c r="B58" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C58" s="24" t="s">
         <v>83</v>
@@ -3699,10 +3921,10 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="41" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>75</v>
@@ -3711,26 +3933,26 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6" ht="29">
+    <row r="60" spans="1:6" ht="45">
       <c r="A60" s="43"/>
       <c r="B60" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C60" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="D60" s="16" t="s">
         <v>144</v>
-      </c>
-      <c r="D60" s="16" t="s">
-        <v>145</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6" ht="29">
-      <c r="A61" s="50" t="s">
-        <v>157</v>
+    <row r="61" spans="1:6" ht="30">
+      <c r="A61" s="44" t="s">
+        <v>156</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C61" s="24"/>
       <c r="D61" s="25" t="s">
@@ -3741,13 +3963,13 @@
       </c>
       <c r="F61" s="20"/>
     </row>
-    <row r="62" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A62" s="52"/>
+    <row r="62" spans="1:6" ht="14.45" customHeight="1">
+      <c r="A62" s="45"/>
       <c r="B62" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D62" s="24"/>
       <c r="E62" s="4"/>
@@ -3758,17 +3980,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A50:A58"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="A41:A44"/>
     <mergeCell ref="A2:A14"/>
     <mergeCell ref="A33:A40"/>
     <mergeCell ref="A28:A32"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A18:A25"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A50:A58"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="A41:A44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -3812,7 +4034,7 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="2:17">
       <c r="B2" t="s">

--- a/dist/dummy_files/wiat_template.xlsx
+++ b/dist/dummy_files/wiat_template.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joans\PhpstormProjects\WIAT_front\public\dummy_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsalo\Desktop\ICRA\WIAT_front\public\dummy_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B59B6FA-13A5-4570-90FB-CA292A301C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FBC384-E032-4D9E-AF57-842E52DEC672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8235" yWindow="2805" windowWidth="28800" windowHeight="15885" activeTab="3" xr2:uid="{A14C6850-7486-4D49-86A3-639AED911610}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" activeTab="3" xr2:uid="{A14C6850-7486-4D49-86A3-639AED911610}"/>
   </bookViews>
   <sheets>
-    <sheet name="INDUSTRY" sheetId="1" r:id="rId1"/>
+    <sheet name="SITE" sheetId="1" r:id="rId1"/>
     <sheet name="ONSITE WWTP" sheetId="2" r:id="rId2"/>
     <sheet name="DIRECT DISCHARGE" sheetId="3" r:id="rId3"/>
     <sheet name="EXTERNAL WWTP" sheetId="4" r:id="rId4"/>
@@ -34,25 +34,13 @@
     <t>Assessment name</t>
   </si>
   <si>
-    <t>Industry name</t>
-  </si>
-  <si>
     <t>Units</t>
   </si>
   <si>
-    <t xml:space="preserve">Industry withdrawal water quantity (surface water only) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Industry withdrawal water quantity (groundwater only) </t>
-  </si>
-  <si>
     <t xml:space="preserve">All other external sources of water from the same watershed from which the water was withdrawn </t>
   </si>
   <si>
     <t>m3/day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Does the industry directly discharge wastewater effluent (without treatment) into the water body? </t>
   </si>
   <si>
     <t>Explanation / Instructions</t>
@@ -195,29 +183,10 @@
 was withdrawn</t>
   </si>
   <si>
-    <t>Has the industry an on-site wastewater pre-treatment or treatment plant?</t>
-  </si>
-  <si>
-    <t>"Specific water consumption" indicates the amount 
-of water used per what is produced. For example, 
-if the industry produces 1000 products per day, 
-and the water consumption is 1000 m3/day, the 
-specific water consumption is 1 m3/unit of product 
-produced. The unit of product produced can 
-be anything, e.g. $, kg, m3, etc</t>
-  </si>
-  <si>
     <t>Specified before</t>
   </si>
   <si>
-    <t>Concentration of pollutants in the water used by the industry and before 
-being treated in a WWTP)</t>
-  </si>
-  <si>
     <t>g/m3 of pollutant</t>
-  </si>
-  <si>
-    <t>Concentration of pollutants in the industry withdrawal water (surface water only)</t>
   </si>
   <si>
     <t>°C</t>
@@ -533,10 +502,6 @@
 DISPOSAL SITE</t>
   </si>
   <si>
-    <t xml:space="preserve">Does the industry discharge
-to an off-site treatment wastewater plant? </t>
-  </si>
-  <si>
     <t xml:space="preserve">Standard industrial
 classification </t>
   </si>
@@ -558,10 +523,6 @@
   <si>
     <t>Volume of industrial wastewater sent to the 
 offsite WWTP every day</t>
-  </si>
-  <si>
-    <t>Add contaminants in
-the industry</t>
   </si>
   <si>
     <t>Sludge sent to land application (dry weight)</t>
@@ -652,24 +613,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Portion of the industry wastewater generation treated 
-in an onsite WWTP
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>MANDATORY</t>
-    </r>
-  </si>
-  <si>
     <t>WIAT TEMPLATE -- INSTRUCTIONS</t>
   </si>
   <si>
@@ -690,6 +633,148 @@
   </si>
   <si>
     <t>Fill in only the desired fields (unless mandatory) from the template and upload the file to the  WIAT tool. If a field is left blank, the default value will be 0.</t>
+  </si>
+  <si>
+    <t>Latidude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Suppliers</t>
+  </si>
+  <si>
+    <t>Add as many suppliers (Name, Latitude, 
+Longitude) as needed to the right (ignore level of certainty)</t>
+  </si>
+  <si>
+    <t>assessment test</t>
+  </si>
+  <si>
+    <t>tonnes</t>
+  </si>
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>Cadmium</t>
+  </si>
+  <si>
+    <t>1,2-Dichloroethane</t>
+  </si>
+  <si>
+    <t>Hexaclorobenzene</t>
+  </si>
+  <si>
+    <t>Mercury</t>
+  </si>
+  <si>
+    <t>Lead</t>
+  </si>
+  <si>
+    <t>Nickel</t>
+  </si>
+  <si>
+    <t>Chloroalkanes</t>
+  </si>
+  <si>
+    <t>Hexachlorobutadiene</t>
+  </si>
+  <si>
+    <t>Nonylphenols</t>
+  </si>
+  <si>
+    <t>Tetrachloroethene</t>
+  </si>
+  <si>
+    <t>Trichloroethylene</t>
+  </si>
+  <si>
+    <t>0.0001281</t>
+  </si>
+  <si>
+    <t>0.01236</t>
+  </si>
+  <si>
+    <t>0.015111</t>
+  </si>
+  <si>
+    <t>0.001224</t>
+  </si>
+  <si>
+    <t>0.0001025</t>
+  </si>
+  <si>
+    <t>0.00006</t>
+  </si>
+  <si>
+    <t>0.001</t>
+  </si>
+  <si>
+    <t>0.003</t>
+  </si>
+  <si>
+    <t>0.0000073</t>
+  </si>
+  <si>
+    <t>0.0000013</t>
+  </si>
+  <si>
+    <t>Concentration of pollutants in the site withdrawal water (surface water only)</t>
+  </si>
+  <si>
+    <t>To the right, the first the concentration and then its level of certainty (one at each cell), and as many times as needed, in the same order that the pollutants added to the site</t>
+  </si>
+  <si>
+    <t>SITE DEFINITION</t>
+  </si>
+  <si>
+    <t>Site name</t>
+  </si>
+  <si>
+    <t>site 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Site withdrawal water quantity (surface water only) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Site withdrawal water quantity (groundwater only) </t>
+  </si>
+  <si>
+    <t>Has the site an on-site wastewater pre-treatment or treatment plant?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the site directly discharge wastewater effluent (without treatment) into the water body? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the site discharge
+to an off-site treatment wastewater plant? </t>
+  </si>
+  <si>
+    <t>"Specific water consumption" indicates the amount 
+of water used per what is produced. For example, 
+if the site produces 1000 products per day, 
+and the water consumption is 1000 m3/day, the 
+specific water consumption is 1 m3/unit of product 
+produced. The unit of product produced can 
+be anything, e.g. $, kg, m3, etc</t>
+  </si>
+  <si>
+    <t>Add contaminants in
+the site</t>
+  </si>
+  <si>
+    <t>Concentration of pollutants in the water used by the site and before 
+being treated in a WWTP)</t>
+  </si>
+  <si>
+    <t>To the right, add first the concentration and then its level of certainty (one at each cell), and as many times as needed, in the same order that the pollutants added to the site</t>
   </si>
   <si>
     <r>
@@ -713,113 +798,28 @@
       </rPr>
       <t xml:space="preserve"> 
 0 --&gt; No data (insufficient data)
-1 --&gt; Estimated (data estimated based on similar industries and/or professional experience)
+1 --&gt; Estimated (data estimated based on similar sites and/or professional experience)
 2 --&gt; Modeled (data that you have extracted from a scientific model. It would typically be more accurate than estimated data, and less accurate than measured data)
 3 --&gt; User data (measured)</t>
     </r>
   </si>
   <si>
-    <t>Latidude</t>
-  </si>
-  <si>
-    <t>Longitude</t>
-  </si>
-  <si>
-    <t>Suppliers</t>
-  </si>
-  <si>
-    <t>Add as many suppliers (Name, Latitude, 
-Longitude) as needed to the right (ignore level of certainty)</t>
-  </si>
-  <si>
-    <t>INDUSTRY DEFINITION</t>
-  </si>
-  <si>
-    <t>assessment test</t>
-  </si>
-  <si>
-    <t>industry 1</t>
-  </si>
-  <si>
-    <t>tonnes</t>
-  </si>
-  <si>
-    <t>COD</t>
-  </si>
-  <si>
-    <t>TN</t>
-  </si>
-  <si>
-    <t>TP</t>
-  </si>
-  <si>
-    <t>Cadmium</t>
-  </si>
-  <si>
-    <t>1,2-Dichloroethane</t>
-  </si>
-  <si>
-    <t>Hexaclorobenzene</t>
-  </si>
-  <si>
-    <t>Mercury</t>
-  </si>
-  <si>
-    <t>Lead</t>
-  </si>
-  <si>
-    <t>Nickel</t>
-  </si>
-  <si>
-    <t>Chloroalkanes</t>
-  </si>
-  <si>
-    <t>Hexachlorobutadiene</t>
-  </si>
-  <si>
-    <t>Nonylphenols</t>
-  </si>
-  <si>
-    <t>Tetrachloroethene</t>
-  </si>
-  <si>
-    <t>Trichloroethylene</t>
-  </si>
-  <si>
-    <t>0.0001281</t>
-  </si>
-  <si>
-    <t>0.01236</t>
-  </si>
-  <si>
-    <t>0.015111</t>
-  </si>
-  <si>
-    <t>0.001224</t>
-  </si>
-  <si>
-    <t>0.0001025</t>
-  </si>
-  <si>
-    <t>0.00006</t>
-  </si>
-  <si>
-    <t>0.001</t>
-  </si>
-  <si>
-    <t>0.003</t>
-  </si>
-  <si>
-    <t>0.0000073</t>
-  </si>
-  <si>
-    <t>0.0000013</t>
-  </si>
-  <si>
-    <t>To the right, add first the concentration and then its level of certainty (one at each cell), and as many times as needed, in the same order that the pollutants added to the industry</t>
-  </si>
-  <si>
-    <t>To the right, the first the concentration and then its level of certainty (one at each cell), and as many times as needed, in the same order that the pollutants added to the industry</t>
+    <r>
+      <t xml:space="preserve">Portion of the site wastewater generation treated 
+in an onsite WWTP
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MANDATORY</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1173,10 +1173,13 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1188,16 +1191,13 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1528,79 +1528,79 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D97F1C-3547-4525-AD16-36CC009A61DF}">
   <dimension ref="A2:AH35"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="94" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A11" zoomScale="94" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="43.140625" customWidth="1"/>
-    <col min="4" max="4" width="34.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="9" max="9" width="41.7109375" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" customWidth="1"/>
-    <col min="14" max="14" width="16.85546875" customWidth="1"/>
-    <col min="15" max="15" width="21.42578125" customWidth="1"/>
-    <col min="16" max="16" width="17.140625" customWidth="1"/>
-    <col min="17" max="17" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="20.453125" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" customWidth="1"/>
+    <col min="3" max="3" width="43.1796875" customWidth="1"/>
+    <col min="4" max="4" width="34.453125" customWidth="1"/>
+    <col min="5" max="5" width="18.453125" customWidth="1"/>
+    <col min="6" max="6" width="17.453125" customWidth="1"/>
+    <col min="9" max="9" width="41.7265625" customWidth="1"/>
+    <col min="10" max="10" width="20.54296875" customWidth="1"/>
+    <col min="14" max="14" width="16.81640625" customWidth="1"/>
+    <col min="15" max="15" width="21.453125" customWidth="1"/>
+    <col min="16" max="16" width="17.1796875" customWidth="1"/>
+    <col min="17" max="17" width="19.1796875" customWidth="1"/>
     <col min="18" max="18" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9">
       <c r="C2" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="36" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="9" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="37"/>
       <c r="B4" s="2" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="9" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="F4" s="20"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="37"/>
       <c r="B5" s="2" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="9" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="E5" s="4">
         <v>44.659449000000002</v>
@@ -1610,57 +1610,57 @@
     <row r="6" spans="1:9">
       <c r="A6" s="37"/>
       <c r="B6" s="2" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="9" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="E6" s="4">
         <v>28.342458600000001</v>
       </c>
       <c r="F6" s="20"/>
     </row>
-    <row r="7" spans="1:9" ht="54.6" customHeight="1">
+    <row r="7" spans="1:9" ht="54.65" customHeight="1">
       <c r="A7" s="37"/>
       <c r="B7" s="2" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="16" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="20"/>
     </row>
     <row r="8" spans="1:9" ht="64.5" customHeight="1">
       <c r="A8" s="38" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B8" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="C8" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>6</v>
-      </c>
       <c r="D8" s="31" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="E8" s="4">
         <v>10</v>
       </c>
       <c r="F8" s="4"/>
       <c r="I8" s="6" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="87.75" customHeight="1">
       <c r="A9" s="38"/>
       <c r="B9" s="28" t="s">
-        <v>4</v>
+        <v>204</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="17">
@@ -1668,195 +1668,195 @@
       </c>
       <c r="F9" s="4"/>
       <c r="I9" s="33" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="135.75" thickBot="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="131" thickBot="1">
       <c r="A10" s="38"/>
       <c r="B10" s="28" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E10" s="4">
         <v>0</v>
       </c>
       <c r="F10" s="4"/>
       <c r="I10" s="34" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="150.75" thickBot="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="131" thickBot="1">
       <c r="A11" s="38"/>
       <c r="B11" s="28" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E11" s="4">
         <v>3</v>
       </c>
       <c r="F11" s="17"/>
       <c r="I11" s="35" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="60">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="58">
       <c r="A12" s="38"/>
       <c r="B12" s="28" t="s">
-        <v>52</v>
+        <v>205</v>
       </c>
       <c r="C12" s="24"/>
       <c r="D12" s="31" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F12" s="20"/>
     </row>
-    <row r="13" spans="1:9" ht="90">
+    <row r="13" spans="1:9" ht="72.5">
       <c r="A13" s="38"/>
       <c r="B13" s="28" t="s">
-        <v>7</v>
+        <v>206</v>
       </c>
       <c r="C13" s="24"/>
       <c r="D13" s="31" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F13" s="20"/>
     </row>
-    <row r="14" spans="1:9" ht="75">
+    <row r="14" spans="1:9" ht="72.5">
       <c r="A14" s="38"/>
       <c r="B14" s="28" t="s">
-        <v>157</v>
+        <v>207</v>
       </c>
       <c r="C14" s="24"/>
       <c r="D14" s="31" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F14" s="20"/>
     </row>
-    <row r="15" spans="1:9" ht="29.1" customHeight="1">
+    <row r="15" spans="1:9" ht="29.15" customHeight="1">
       <c r="A15" s="38"/>
       <c r="B15" s="28" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C15" s="24"/>
       <c r="D15" s="31" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F15" s="20"/>
     </row>
-    <row r="16" spans="1:9" ht="195">
+    <row r="16" spans="1:9" ht="188.5">
       <c r="A16" s="38"/>
       <c r="B16" s="28" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C16" s="24"/>
       <c r="D16" s="29" t="s">
-        <v>53</v>
+        <v>208</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="F16" s="20"/>
     </row>
-    <row r="17" spans="1:34" ht="60">
+    <row r="17" spans="1:34" ht="58">
       <c r="A17" s="38"/>
       <c r="B17" s="28" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="E17" s="4">
         <v>2</v>
       </c>
       <c r="F17" s="17"/>
     </row>
-    <row r="18" spans="1:34" ht="75">
+    <row r="18" spans="1:34" ht="72.5">
       <c r="A18" s="38"/>
       <c r="B18" s="28" t="s">
-        <v>164</v>
+        <v>209</v>
       </c>
       <c r="C18" s="24"/>
       <c r="D18" s="30" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="G18" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="H18" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="I18" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="J18" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="K18" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="L18" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="M18" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="N18" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="O18" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="P18" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="Q18" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="R18" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34" ht="90">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" ht="87">
       <c r="A19" s="38"/>
       <c r="B19" s="23" t="s">
-        <v>55</v>
+        <v>210</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E19" s="4">
         <v>96.28</v>
@@ -1895,19 +1895,19 @@
         <v>3</v>
       </c>
       <c r="Q19" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="R19">
         <v>1</v>
       </c>
       <c r="S19" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="T19">
         <v>1</v>
       </c>
       <c r="U19" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="V19">
         <v>1</v>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="AA19" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="AB19">
         <v>1</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="AE19" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="AF19">
         <v>3</v>
@@ -1949,13 +1949,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34" ht="60">
+    <row r="20" spans="1:34" ht="58">
       <c r="A20" s="38"/>
       <c r="B20" s="23" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D20" s="25"/>
       <c r="E20" s="4"/>
@@ -1963,18 +1963,18 @@
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
     </row>
-    <row r="21" spans="1:34" ht="90">
+    <row r="21" spans="1:34" ht="72.5">
       <c r="A21" s="21" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>57</v>
+        <v>198</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="E21" s="4">
         <v>1.0568</v>
@@ -2030,90 +2030,90 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3699978A-1E09-4AD2-9D2E-EA46A24DCBD2}">
   <dimension ref="A1:AF64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
-    <col min="2" max="2" width="43.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="48.5703125" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.54296875" customWidth="1"/>
+    <col min="2" max="2" width="43.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" customWidth="1"/>
+    <col min="4" max="4" width="48.54296875" customWidth="1"/>
+    <col min="5" max="5" width="27.1796875" customWidth="1"/>
+    <col min="6" max="6" width="22.81640625" customWidth="1"/>
+    <col min="11" max="11" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
       <c r="C1" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:32">
       <c r="A2" s="36" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F2" s="20"/>
     </row>
-    <row r="3" spans="1:32" ht="60">
+    <row r="3" spans="1:32" ht="43.5">
       <c r="A3" s="36"/>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="E3" s="4">
         <v>15</v>
       </c>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:32" ht="30">
+    <row r="4" spans="1:32" ht="29">
       <c r="A4" s="36"/>
       <c r="B4" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="E4" s="4">
         <v>10</v>
       </c>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:32" ht="45">
+    <row r="5" spans="1:32" ht="29">
       <c r="A5" s="36"/>
       <c r="B5" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="17">
@@ -2121,27 +2121,27 @@
       </c>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:32" ht="30">
+    <row r="6" spans="1:32" ht="29">
       <c r="A6" s="36"/>
       <c r="B6" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F6" s="20"/>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="36"/>
       <c r="B7" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="4">
@@ -2149,13 +2149,13 @@
       </c>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:32" ht="30">
+    <row r="8" spans="1:32" ht="29">
       <c r="A8" s="36"/>
       <c r="B8" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="4">
@@ -2166,61 +2166,61 @@
     <row r="9" spans="1:32">
       <c r="A9" s="36"/>
       <c r="B9" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E9" s="4">
         <v>0.45500000000000002</v>
       </c>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:32" ht="30">
+    <row r="10" spans="1:32" ht="29">
       <c r="A10" s="36"/>
       <c r="B10" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E10" s="4">
         <v>0.05</v>
       </c>
       <c r="F10" s="17"/>
     </row>
-    <row r="11" spans="1:32" ht="45">
+    <row r="11" spans="1:32" ht="29">
       <c r="A11" s="36"/>
       <c r="B11" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E11" s="4">
         <v>1.04165E-2</v>
       </c>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:32" ht="30">
+    <row r="12" spans="1:32" ht="29">
       <c r="A12" s="36"/>
       <c r="B12" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E12" s="4">
         <v>7.4999999999999997E-3</v>
@@ -2230,10 +2230,10 @@
     <row r="13" spans="1:32">
       <c r="A13" s="36"/>
       <c r="B13" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="4">
@@ -2244,10 +2244,10 @@
     <row r="14" spans="1:32">
       <c r="A14" s="36"/>
       <c r="B14" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="4">
@@ -2259,10 +2259,10 @@
     <row r="15" spans="1:32">
       <c r="A15" s="36"/>
       <c r="B15" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="4">
@@ -2270,18 +2270,18 @@
       </c>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:32" ht="60">
+    <row r="16" spans="1:32" ht="58">
       <c r="A16" s="27" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E16" s="4">
         <v>9.6199999999999992</v>
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="R16">
         <v>3</v>
       </c>
       <c r="S16" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="T16">
         <v>3</v>
       </c>
       <c r="U16" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="V16">
         <v>3</v>
@@ -2350,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="AA16" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="AB16">
         <v>3</v>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="AE16" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="AF16">
         <v>3</v>
@@ -2370,17 +2370,17 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="36" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F17" s="20"/>
       <c r="G17" s="18"/>
@@ -2388,27 +2388,27 @@
     <row r="18" spans="1:7">
       <c r="A18" s="36"/>
       <c r="B18" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:7" ht="30">
+    <row r="19" spans="1:7" ht="29">
       <c r="A19" s="40" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -2416,25 +2416,25 @@
     <row r="20" spans="1:7">
       <c r="A20" s="38"/>
       <c r="B20" s="23" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D20" s="24"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="45">
+    <row r="21" spans="1:7" ht="43.5">
       <c r="A21" s="38"/>
       <c r="B21" s="23" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -2442,10 +2442,10 @@
     <row r="22" spans="1:7">
       <c r="A22" s="38"/>
       <c r="B22" s="23" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D22" s="24"/>
       <c r="E22" s="4"/>
@@ -2454,22 +2454,22 @@
     <row r="23" spans="1:7">
       <c r="A23" s="38"/>
       <c r="B23" s="23" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D23" s="24"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="30">
+    <row r="24" spans="1:7">
       <c r="A24" s="38"/>
       <c r="B24" s="23" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D24" s="24"/>
       <c r="E24" s="4"/>
@@ -2478,24 +2478,24 @@
     <row r="25" spans="1:7">
       <c r="A25" s="38"/>
       <c r="B25" s="23" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C25" s="24"/>
       <c r="D25" s="25" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F25" s="20"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="38"/>
       <c r="B26" s="23" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D26" s="24"/>
       <c r="E26" s="4"/>
@@ -2503,27 +2503,27 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="39" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F27" s="20"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="36"/>
       <c r="B28" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="4"/>
@@ -2531,13 +2531,13 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="38" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D29" s="24"/>
       <c r="E29" s="4"/>
@@ -2546,22 +2546,22 @@
     <row r="30" spans="1:7">
       <c r="A30" s="38"/>
       <c r="B30" s="23" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D30" s="24"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="30">
+    <row r="31" spans="1:7" ht="29">
       <c r="A31" s="38"/>
       <c r="B31" s="23" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D31" s="24"/>
       <c r="E31" s="4"/>
@@ -2570,10 +2570,10 @@
     <row r="32" spans="1:7">
       <c r="A32" s="38"/>
       <c r="B32" s="23" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D32" s="24"/>
       <c r="E32" s="4"/>
@@ -2582,10 +2582,10 @@
     <row r="33" spans="1:6">
       <c r="A33" s="38"/>
       <c r="B33" s="23" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D33" s="24"/>
       <c r="E33" s="4"/>
@@ -2593,53 +2593,53 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="39" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" ht="30">
+    <row r="35" spans="1:6" ht="29">
       <c r="A35" s="36"/>
       <c r="B35" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F35" s="20"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="36"/>
       <c r="B36" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" ht="30">
+    <row r="37" spans="1:6" ht="29">
       <c r="A37" s="36"/>
       <c r="B37" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="4"/>
@@ -2648,10 +2648,10 @@
     <row r="38" spans="1:6">
       <c r="A38" s="36"/>
       <c r="B38" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="4"/>
@@ -2660,22 +2660,22 @@
     <row r="39" spans="1:6">
       <c r="A39" s="36"/>
       <c r="B39" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" ht="30">
+    <row r="40" spans="1:6" ht="29">
       <c r="A40" s="36"/>
       <c r="B40" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="4"/>
@@ -2684,10 +2684,10 @@
     <row r="41" spans="1:6">
       <c r="A41" s="36"/>
       <c r="B41" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="4"/>
@@ -2695,28 +2695,28 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="38" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D42" s="24"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:6" ht="30">
+    <row r="43" spans="1:6" ht="29">
       <c r="A43" s="38"/>
       <c r="B43" s="23" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
@@ -2724,10 +2724,10 @@
     <row r="44" spans="1:6">
       <c r="A44" s="38"/>
       <c r="B44" s="26" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D44" s="24"/>
       <c r="E44" s="4"/>
@@ -2736,26 +2736,26 @@
     <row r="45" spans="1:6">
       <c r="A45" s="38"/>
       <c r="B45" s="26" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C45" s="24"/>
       <c r="D45" s="25" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F45" s="20"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="39" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="4"/>
@@ -2764,34 +2764,34 @@
     <row r="47" spans="1:6">
       <c r="A47" s="36"/>
       <c r="B47" s="19" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:6" ht="45">
+    <row r="48" spans="1:6" ht="29">
       <c r="A48" s="36"/>
       <c r="B48" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="1:6" ht="30">
+    <row r="49" spans="1:6" ht="29">
       <c r="A49" s="36"/>
       <c r="B49" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="4"/>
@@ -2800,10 +2800,10 @@
     <row r="50" spans="1:6">
       <c r="A50" s="36"/>
       <c r="B50" s="19" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="4"/>
@@ -2811,25 +2811,25 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="38" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D51" s="24"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6" ht="45">
+    <row r="52" spans="1:6" ht="29">
       <c r="A52" s="38"/>
       <c r="B52" s="23" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D52" s="24"/>
       <c r="E52" s="4"/>
@@ -2838,7 +2838,7 @@
     <row r="53" spans="1:6">
       <c r="A53" s="38"/>
       <c r="B53" s="23" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C53" s="24"/>
       <c r="D53" s="24"/>
@@ -2848,22 +2848,22 @@
     <row r="54" spans="1:6">
       <c r="A54" s="38"/>
       <c r="B54" s="23" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D54" s="24"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6" ht="30">
+    <row r="55" spans="1:6" ht="29">
       <c r="A55" s="38"/>
       <c r="B55" s="23" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D55" s="24"/>
       <c r="E55" s="4"/>
@@ -2872,34 +2872,34 @@
     <row r="56" spans="1:6">
       <c r="A56" s="38"/>
       <c r="B56" s="23" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D56" s="24"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6" ht="30">
+    <row r="57" spans="1:6" ht="29">
       <c r="A57" s="38"/>
       <c r="B57" s="23" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D57" s="24"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:6" ht="30">
+    <row r="58" spans="1:6" ht="29">
       <c r="A58" s="38"/>
       <c r="B58" s="23" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D58" s="24"/>
       <c r="E58" s="4"/>
@@ -2908,10 +2908,10 @@
     <row r="59" spans="1:6">
       <c r="A59" s="38"/>
       <c r="B59" s="23" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D59" s="24"/>
       <c r="E59" s="4"/>
@@ -2919,55 +2919,55 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="36" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6" ht="45">
+    <row r="61" spans="1:6" ht="29">
       <c r="A61" s="36"/>
       <c r="B61" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:6" ht="30">
+    <row r="62" spans="1:6" ht="29">
       <c r="A62" s="40" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C62" s="24"/>
       <c r="D62" s="25" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F62" s="20"/>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="38"/>
       <c r="B63" s="23" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D63" s="24"/>
       <c r="E63" s="4"/>
@@ -3033,41 +3033,41 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
-    <col min="2" max="2" width="47.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="5" width="30.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.1796875" customWidth="1"/>
+    <col min="2" max="2" width="47.81640625" customWidth="1"/>
+    <col min="3" max="3" width="20.1796875" customWidth="1"/>
+    <col min="4" max="5" width="30.1796875" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="C1" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="45">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="29">
       <c r="A2" s="41" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="E2" s="17"/>
       <c r="F2" s="4"/>
@@ -3075,10 +3075,10 @@
     <row r="3" spans="1:6">
       <c r="A3" s="42"/>
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="17"/>
@@ -3087,36 +3087,36 @@
     <row r="4" spans="1:6">
       <c r="A4" s="42"/>
       <c r="B4" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="17"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" ht="30">
+    <row r="5" spans="1:6" ht="29">
       <c r="A5" s="42"/>
       <c r="B5" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="43"/>
       <c r="B6" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="4"/>
@@ -3149,113 +3149,113 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D11597DE-10A8-4946-BDC0-A61DC121839D}">
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
-    <col min="2" max="2" width="43.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="48.5703125" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" customWidth="1"/>
-    <col min="8" max="8" width="48.85546875" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="25.54296875" customWidth="1"/>
+    <col min="2" max="2" width="43.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" customWidth="1"/>
+    <col min="4" max="4" width="48.54296875" customWidth="1"/>
+    <col min="5" max="5" width="27.1796875" customWidth="1"/>
+    <col min="6" max="6" width="22.81640625" customWidth="1"/>
+    <col min="8" max="8" width="48.81640625" customWidth="1"/>
+    <col min="9" max="9" width="14.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="C1" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="41" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F2" s="20"/>
     </row>
-    <row r="3" spans="1:7" ht="60">
+    <row r="3" spans="1:7" ht="43.5">
       <c r="A3" s="42"/>
       <c r="B3" s="3" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:7" ht="30">
+    <row r="4" spans="1:7" ht="29">
       <c r="A4" s="42"/>
       <c r="B4" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="30">
+    <row r="5" spans="1:7" ht="29">
       <c r="A5" s="42"/>
       <c r="B5" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="42"/>
       <c r="B6" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:7" ht="30">
+    <row r="7" spans="1:7" ht="29">
       <c r="A7" s="42"/>
       <c r="B7" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="17"/>
@@ -3264,55 +3264,55 @@
     <row r="8" spans="1:7">
       <c r="A8" s="42"/>
       <c r="B8" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:7" ht="30">
+    <row r="9" spans="1:7" ht="29">
       <c r="A9" s="42"/>
       <c r="B9" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
     </row>
-    <row r="10" spans="1:7" ht="45">
+    <row r="10" spans="1:7" ht="29">
       <c r="A10" s="42"/>
       <c r="B10" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:7" ht="30">
+    <row r="11" spans="1:7" ht="29">
       <c r="A11" s="42"/>
       <c r="B11" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="4"/>
@@ -3320,10 +3320,10 @@
     <row r="12" spans="1:7">
       <c r="A12" s="42"/>
       <c r="B12" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
@@ -3332,10 +3332,10 @@
     <row r="13" spans="1:7">
       <c r="A13" s="42"/>
       <c r="B13" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="17"/>
@@ -3344,456 +3344,456 @@
     <row r="14" spans="1:7">
       <c r="A14" s="43"/>
       <c r="B14" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="17"/>
       <c r="F14" s="4"/>
       <c r="G14" s="18"/>
     </row>
-    <row r="15" spans="1:7" ht="60">
+    <row r="15" spans="1:7" ht="58">
       <c r="A15" s="27" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="53" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F16" s="20"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="54"/>
       <c r="B17" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="18"/>
     </row>
-    <row r="18" spans="1:7" ht="30">
-      <c r="A18" s="44" t="s">
-        <v>147</v>
+    <row r="18" spans="1:7" ht="29">
+      <c r="A18" s="50" t="s">
+        <v>139</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:7" ht="14.45" customHeight="1">
-      <c r="A19" s="52"/>
+    <row r="19" spans="1:7" ht="14.5" customHeight="1">
+      <c r="A19" s="51"/>
       <c r="B19" s="23" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D19" s="24"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="45">
-      <c r="A20" s="52"/>
+    <row r="20" spans="1:7" ht="43.5">
+      <c r="A20" s="51"/>
       <c r="B20" s="23" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="52"/>
+      <c r="A21" s="51"/>
       <c r="B21" s="23" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D21" s="24"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="52"/>
+      <c r="A22" s="51"/>
       <c r="B22" s="23" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D22" s="24"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:7" ht="30">
-      <c r="A23" s="52"/>
+    <row r="23" spans="1:7">
+      <c r="A23" s="51"/>
       <c r="B23" s="23" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D23" s="24"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="52"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="23" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C24" s="24"/>
       <c r="D24" s="25" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F24" s="20"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="45"/>
+      <c r="A25" s="52"/>
       <c r="B25" s="23" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="49" t="s">
-        <v>149</v>
+      <c r="A26" s="44" t="s">
+        <v>141</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F26" s="20"/>
     </row>
-    <row r="27" spans="1:7" ht="14.45" customHeight="1">
-      <c r="A27" s="51"/>
+    <row r="27" spans="1:7" ht="14.5" customHeight="1">
+      <c r="A27" s="46"/>
       <c r="B27" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="46" t="s">
-        <v>150</v>
+      <c r="A28" s="47" t="s">
+        <v>142</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D28" s="24"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="47"/>
+      <c r="A29" s="48"/>
       <c r="B29" s="23" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D29" s="24"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="30">
-      <c r="A30" s="47"/>
+    <row r="30" spans="1:7" ht="29">
+      <c r="A30" s="48"/>
       <c r="B30" s="23" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D30" s="24"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="47"/>
+      <c r="A31" s="48"/>
       <c r="B31" s="23" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D31" s="24"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="48"/>
+      <c r="A32" s="49"/>
       <c r="B32" s="23" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D32" s="24"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="49" t="s">
-        <v>151</v>
+      <c r="A33" s="44" t="s">
+        <v>143</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" ht="30">
-      <c r="A34" s="50"/>
+    <row r="34" spans="1:6" ht="29">
+      <c r="A34" s="45"/>
       <c r="B34" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F34" s="20"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="50"/>
+      <c r="A35" s="45"/>
       <c r="B35" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" ht="30">
-      <c r="A36" s="50"/>
+    <row r="36" spans="1:6" ht="29">
+      <c r="A36" s="45"/>
       <c r="B36" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="50"/>
+      <c r="A37" s="45"/>
       <c r="B37" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="50"/>
+      <c r="A38" s="45"/>
       <c r="B38" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6" ht="30">
-      <c r="A39" s="50"/>
+    <row r="39" spans="1:6" ht="29">
+      <c r="A39" s="45"/>
       <c r="B39" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="51"/>
+      <c r="A40" s="46"/>
       <c r="B40" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="46" t="s">
-        <v>152</v>
+      <c r="A41" s="47" t="s">
+        <v>144</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D41" s="24"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6" ht="30">
-      <c r="A42" s="47"/>
+    <row r="42" spans="1:6" ht="29">
+      <c r="A42" s="48"/>
       <c r="B42" s="23" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="47"/>
+      <c r="A43" s="48"/>
       <c r="B43" s="26" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D43" s="24"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="48"/>
+      <c r="A44" s="49"/>
       <c r="B44" s="26" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C44" s="24"/>
       <c r="D44" s="25" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F44" s="20"/>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="39" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:6" ht="14.45" customHeight="1">
+    <row r="46" spans="1:6" ht="14.5" customHeight="1">
       <c r="A46" s="36"/>
       <c r="B46" s="19" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:6" ht="45">
+    <row r="47" spans="1:6" ht="29">
       <c r="A47" s="36"/>
       <c r="B47" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:6" ht="30">
+    <row r="48" spans="1:6" ht="29">
       <c r="A48" s="36"/>
       <c r="B48" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="4"/>
@@ -3802,10 +3802,10 @@
     <row r="49" spans="1:6">
       <c r="A49" s="36"/>
       <c r="B49" s="19" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="4"/>
@@ -3813,25 +3813,25 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="38" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D50" s="24"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="1:6" ht="45">
+    <row r="51" spans="1:6" ht="29">
       <c r="A51" s="38"/>
       <c r="B51" s="23" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D51" s="24"/>
       <c r="E51" s="4"/>
@@ -3840,7 +3840,7 @@
     <row r="52" spans="1:6">
       <c r="A52" s="38"/>
       <c r="B52" s="23" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C52" s="24"/>
       <c r="D52" s="24"/>
@@ -3850,22 +3850,22 @@
     <row r="53" spans="1:6">
       <c r="A53" s="38"/>
       <c r="B53" s="23" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D53" s="24"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6" ht="30">
+    <row r="54" spans="1:6" ht="29">
       <c r="A54" s="38"/>
       <c r="B54" s="23" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D54" s="24"/>
       <c r="E54" s="4"/>
@@ -3874,34 +3874,34 @@
     <row r="55" spans="1:6">
       <c r="A55" s="38"/>
       <c r="B55" s="23" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D55" s="24"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6" ht="30">
+    <row r="56" spans="1:6" ht="29">
       <c r="A56" s="38"/>
       <c r="B56" s="23" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D56" s="24"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6" ht="30">
+    <row r="57" spans="1:6" ht="29">
       <c r="A57" s="38"/>
       <c r="B57" s="23" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D57" s="24"/>
       <c r="E57" s="4"/>
@@ -3910,10 +3910,10 @@
     <row r="58" spans="1:6">
       <c r="A58" s="38"/>
       <c r="B58" s="23" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D58" s="24"/>
       <c r="E58" s="4"/>
@@ -3921,55 +3921,55 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="41" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6" ht="45">
+    <row r="60" spans="1:6" ht="29">
       <c r="A60" s="43"/>
       <c r="B60" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6" ht="30">
-      <c r="A61" s="44" t="s">
-        <v>156</v>
+    <row r="61" spans="1:6" ht="29">
+      <c r="A61" s="50" t="s">
+        <v>148</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C61" s="24"/>
       <c r="D61" s="25" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F61" s="20"/>
     </row>
-    <row r="62" spans="1:6" ht="14.45" customHeight="1">
-      <c r="A62" s="45"/>
+    <row r="62" spans="1:6" ht="14.5" customHeight="1">
+      <c r="A62" s="52"/>
       <c r="B62" s="23" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D62" s="24"/>
       <c r="E62" s="4"/>
@@ -3980,17 +3980,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A50:A58"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="A41:A44"/>
     <mergeCell ref="A2:A14"/>
     <mergeCell ref="A33:A40"/>
     <mergeCell ref="A28:A32"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A18:A25"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A50:A58"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="A41:A44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -4034,182 +4034,182 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="2" spans="2:17">
       <c r="B2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F2" s="10"/>
       <c r="L2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="N2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="Q2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="2:17">
       <c r="B3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" t="s">
         <v>16</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:17">
       <c r="F4" s="11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Q4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:17">
       <c r="F5" s="11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="2:17">
       <c r="F6" s="11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="2:17">
       <c r="F7" s="11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="2:17">
       <c r="F8" s="11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="2:17">
       <c r="B9" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="2:17">
       <c r="B10" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="2:17">
       <c r="B11" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="2:17">
       <c r="F12" s="11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="2:17">
       <c r="F13" s="11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="2:17">
       <c r="F14" s="11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="2:17">
       <c r="F15" s="11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="2:17">
       <c r="F16" s="11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="6:6">
       <c r="F17" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="6:6">
       <c r="F18" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="6:6">
       <c r="F19" s="11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="6:6">
       <c r="F20" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="6:6">
       <c r="F21" s="11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="6:6">
       <c r="F22" s="11" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="6:6">
       <c r="F23" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="6:6">
       <c r="F24" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="6:6">
       <c r="F25" s="11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="6:6">
       <c r="F26" s="11" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="6:6">
       <c r="F27" s="11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
